--- a/docs/userapi/TableDesign.xlsx
+++ b/docs/userapi/TableDesign.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="7440" yWindow="60" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Table List" sheetId="1" r:id="rId4"/>
-    <sheet name="User" sheetId="2" r:id="rId5"/>
-    <sheet name="Follow" sheetId="3" r:id="rId6"/>
-    <sheet name="Like" sheetId="4" r:id="rId7"/>
-    <sheet name="Users' Messages" sheetId="5" r:id="rId8"/>
-    <sheet name="Messages" sheetId="6" r:id="rId9"/>
+    <sheet name="Table List" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="Follow" sheetId="3" r:id="rId3"/>
+    <sheet name="Like" sheetId="4" r:id="rId4"/>
+    <sheet name="Users' Messages" sheetId="5" r:id="rId5"/>
+    <sheet name="Messages" sheetId="6" r:id="rId6"/>
+    <sheet name="Reset Token" sheetId="8" r:id="rId7"/>
+    <sheet name="Activator Token" sheetId="9" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -210,24 +220,64 @@
   <si>
     <t>text</t>
   </si>
+  <si>
+    <t>Account Status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>reset_token</t>
+  </si>
+  <si>
+    <t>act_token</t>
+  </si>
+  <si>
+    <t>Reset Token URL</t>
+  </si>
+  <si>
+    <t>Activator Token URL</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>id of user</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>due_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,7 +290,7 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -264,6 +314,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Kaiti SC Black"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="5">
@@ -316,159 +378,198 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="fff4f4f4"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFF4F4F4"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="twitter.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="450850" y="2499360"/>
-          <a:ext cx="5372100" cy="6400801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -660,7 +761,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -669,7 +770,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -678,7 +779,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -687,7 +788,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -696,7 +797,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -705,7 +806,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -817,8 +918,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -826,14 +927,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -852,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +961,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -888,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1119,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1145,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1171,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1197,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,9 +1210,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1127,7 +1234,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1146,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1383,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1409,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1435,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,9 +1500,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1408,7 +1521,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1427,7 +1540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1509,7 +1622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1639,7 +1752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1665,7 +1778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,292 +1791,1262 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F7"/>
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="17" customHeight="1">
-      <c r="B2" t="s" s="2">
+    <row r="1" spans="1:256" ht="2" customHeight="1"/>
+    <row r="2" spans="1:256" ht="17" customHeight="1">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:256" ht="17" customHeight="1">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:256" ht="17" customHeight="1">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:256" ht="17" customHeight="1">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:256" ht="17" customHeight="1">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:256" ht="17" customHeight="1">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s" s="4">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="8" spans="1:256" ht="17" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="22"/>
+      <c r="BL8" s="22"/>
+      <c r="BM8" s="22"/>
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="22"/>
+      <c r="BP8" s="22"/>
+      <c r="BQ8" s="22"/>
+      <c r="BR8" s="22"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
+      <c r="BX8" s="22"/>
+      <c r="BY8" s="22"/>
+      <c r="BZ8" s="22"/>
+      <c r="CA8" s="22"/>
+      <c r="CB8" s="22"/>
+      <c r="CC8" s="22"/>
+      <c r="CD8" s="22"/>
+      <c r="CE8" s="22"/>
+      <c r="CF8" s="22"/>
+      <c r="CG8" s="22"/>
+      <c r="CH8" s="22"/>
+      <c r="CI8" s="22"/>
+      <c r="CJ8" s="22"/>
+      <c r="CK8" s="22"/>
+      <c r="CL8" s="22"/>
+      <c r="CM8" s="22"/>
+      <c r="CN8" s="22"/>
+      <c r="CO8" s="22"/>
+      <c r="CP8" s="22"/>
+      <c r="CQ8" s="22"/>
+      <c r="CR8" s="22"/>
+      <c r="CS8" s="22"/>
+      <c r="CT8" s="22"/>
+      <c r="CU8" s="22"/>
+      <c r="CV8" s="22"/>
+      <c r="CW8" s="22"/>
+      <c r="CX8" s="22"/>
+      <c r="CY8" s="22"/>
+      <c r="CZ8" s="22"/>
+      <c r="DA8" s="22"/>
+      <c r="DB8" s="22"/>
+      <c r="DC8" s="22"/>
+      <c r="DD8" s="22"/>
+      <c r="DE8" s="22"/>
+      <c r="DF8" s="22"/>
+      <c r="DG8" s="22"/>
+      <c r="DH8" s="22"/>
+      <c r="DI8" s="22"/>
+      <c r="DJ8" s="22"/>
+      <c r="DK8" s="22"/>
+      <c r="DL8" s="22"/>
+      <c r="DM8" s="22"/>
+      <c r="DN8" s="22"/>
+      <c r="DO8" s="22"/>
+      <c r="DP8" s="22"/>
+      <c r="DQ8" s="22"/>
+      <c r="DR8" s="22"/>
+      <c r="DS8" s="22"/>
+      <c r="DT8" s="22"/>
+      <c r="DU8" s="22"/>
+      <c r="DV8" s="22"/>
+      <c r="DW8" s="22"/>
+      <c r="DX8" s="22"/>
+      <c r="DY8" s="22"/>
+      <c r="DZ8" s="22"/>
+      <c r="EA8" s="22"/>
+      <c r="EB8" s="22"/>
+      <c r="EC8" s="22"/>
+      <c r="ED8" s="22"/>
+      <c r="EE8" s="22"/>
+      <c r="EF8" s="22"/>
+      <c r="EG8" s="22"/>
+      <c r="EH8" s="22"/>
+      <c r="EI8" s="22"/>
+      <c r="EJ8" s="22"/>
+      <c r="EK8" s="22"/>
+      <c r="EL8" s="22"/>
+      <c r="EM8" s="22"/>
+      <c r="EN8" s="22"/>
+      <c r="EO8" s="22"/>
+      <c r="EP8" s="22"/>
+      <c r="EQ8" s="22"/>
+      <c r="ER8" s="22"/>
+      <c r="ES8" s="22"/>
+      <c r="ET8" s="22"/>
+      <c r="EU8" s="22"/>
+      <c r="EV8" s="22"/>
+      <c r="EW8" s="22"/>
+      <c r="EX8" s="22"/>
+      <c r="EY8" s="22"/>
+      <c r="EZ8" s="22"/>
+      <c r="FA8" s="22"/>
+      <c r="FB8" s="22"/>
+      <c r="FC8" s="22"/>
+      <c r="FD8" s="22"/>
+      <c r="FE8" s="22"/>
+      <c r="FF8" s="22"/>
+      <c r="FG8" s="22"/>
+      <c r="FH8" s="22"/>
+      <c r="FI8" s="22"/>
+      <c r="FJ8" s="22"/>
+      <c r="FK8" s="22"/>
+      <c r="FL8" s="22"/>
+      <c r="FM8" s="22"/>
+      <c r="FN8" s="22"/>
+      <c r="FO8" s="22"/>
+      <c r="FP8" s="22"/>
+      <c r="FQ8" s="22"/>
+      <c r="FR8" s="22"/>
+      <c r="FS8" s="22"/>
+      <c r="FT8" s="22"/>
+      <c r="FU8" s="22"/>
+      <c r="FV8" s="22"/>
+      <c r="FW8" s="22"/>
+      <c r="FX8" s="22"/>
+      <c r="FY8" s="22"/>
+      <c r="FZ8" s="22"/>
+      <c r="GA8" s="22"/>
+      <c r="GB8" s="22"/>
+      <c r="GC8" s="22"/>
+      <c r="GD8" s="22"/>
+      <c r="GE8" s="22"/>
+      <c r="GF8" s="22"/>
+      <c r="GG8" s="22"/>
+      <c r="GH8" s="22"/>
+      <c r="GI8" s="22"/>
+      <c r="GJ8" s="22"/>
+      <c r="GK8" s="22"/>
+      <c r="GL8" s="22"/>
+      <c r="GM8" s="22"/>
+      <c r="GN8" s="22"/>
+      <c r="GO8" s="22"/>
+      <c r="GP8" s="22"/>
+      <c r="GQ8" s="22"/>
+      <c r="GR8" s="22"/>
+      <c r="GS8" s="22"/>
+      <c r="GT8" s="22"/>
+      <c r="GU8" s="22"/>
+      <c r="GV8" s="22"/>
+      <c r="GW8" s="22"/>
+      <c r="GX8" s="22"/>
+      <c r="GY8" s="22"/>
+      <c r="GZ8" s="22"/>
+      <c r="HA8" s="22"/>
+      <c r="HB8" s="22"/>
+      <c r="HC8" s="22"/>
+      <c r="HD8" s="22"/>
+      <c r="HE8" s="22"/>
+      <c r="HF8" s="22"/>
+      <c r="HG8" s="22"/>
+      <c r="HH8" s="22"/>
+      <c r="HI8" s="22"/>
+      <c r="HJ8" s="22"/>
+      <c r="HK8" s="22"/>
+      <c r="HL8" s="22"/>
+      <c r="HM8" s="22"/>
+      <c r="HN8" s="22"/>
+      <c r="HO8" s="22"/>
+      <c r="HP8" s="22"/>
+      <c r="HQ8" s="22"/>
+      <c r="HR8" s="22"/>
+      <c r="HS8" s="22"/>
+      <c r="HT8" s="22"/>
+      <c r="HU8" s="22"/>
+      <c r="HV8" s="22"/>
+      <c r="HW8" s="22"/>
+      <c r="HX8" s="22"/>
+      <c r="HY8" s="22"/>
+      <c r="HZ8" s="22"/>
+      <c r="IA8" s="22"/>
+      <c r="IB8" s="22"/>
+      <c r="IC8" s="22"/>
+      <c r="ID8" s="22"/>
+      <c r="IE8" s="22"/>
+      <c r="IF8" s="22"/>
+      <c r="IG8" s="22"/>
+      <c r="IH8" s="22"/>
+      <c r="II8" s="22"/>
+      <c r="IJ8" s="22"/>
+      <c r="IK8" s="22"/>
+      <c r="IL8" s="22"/>
+      <c r="IM8" s="22"/>
+      <c r="IN8" s="22"/>
+      <c r="IO8" s="22"/>
+      <c r="IP8" s="22"/>
+      <c r="IQ8" s="22"/>
+      <c r="IR8" s="22"/>
+      <c r="IS8" s="22"/>
+      <c r="IT8" s="22"/>
+      <c r="IU8" s="22"/>
+      <c r="IV8" s="22"/>
+    </row>
+    <row r="9" spans="1:256" ht="17" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22"/>
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22"/>
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
+      <c r="CX9" s="22"/>
+      <c r="CY9" s="22"/>
+      <c r="CZ9" s="22"/>
+      <c r="DA9" s="22"/>
+      <c r="DB9" s="22"/>
+      <c r="DC9" s="22"/>
+      <c r="DD9" s="22"/>
+      <c r="DE9" s="22"/>
+      <c r="DF9" s="22"/>
+      <c r="DG9" s="22"/>
+      <c r="DH9" s="22"/>
+      <c r="DI9" s="22"/>
+      <c r="DJ9" s="22"/>
+      <c r="DK9" s="22"/>
+      <c r="DL9" s="22"/>
+      <c r="DM9" s="22"/>
+      <c r="DN9" s="22"/>
+      <c r="DO9" s="22"/>
+      <c r="DP9" s="22"/>
+      <c r="DQ9" s="22"/>
+      <c r="DR9" s="22"/>
+      <c r="DS9" s="22"/>
+      <c r="DT9" s="22"/>
+      <c r="DU9" s="22"/>
+      <c r="DV9" s="22"/>
+      <c r="DW9" s="22"/>
+      <c r="DX9" s="22"/>
+      <c r="DY9" s="22"/>
+      <c r="DZ9" s="22"/>
+      <c r="EA9" s="22"/>
+      <c r="EB9" s="22"/>
+      <c r="EC9" s="22"/>
+      <c r="ED9" s="22"/>
+      <c r="EE9" s="22"/>
+      <c r="EF9" s="22"/>
+      <c r="EG9" s="22"/>
+      <c r="EH9" s="22"/>
+      <c r="EI9" s="22"/>
+      <c r="EJ9" s="22"/>
+      <c r="EK9" s="22"/>
+      <c r="EL9" s="22"/>
+      <c r="EM9" s="22"/>
+      <c r="EN9" s="22"/>
+      <c r="EO9" s="22"/>
+      <c r="EP9" s="22"/>
+      <c r="EQ9" s="22"/>
+      <c r="ER9" s="22"/>
+      <c r="ES9" s="22"/>
+      <c r="ET9" s="22"/>
+      <c r="EU9" s="22"/>
+      <c r="EV9" s="22"/>
+      <c r="EW9" s="22"/>
+      <c r="EX9" s="22"/>
+      <c r="EY9" s="22"/>
+      <c r="EZ9" s="22"/>
+      <c r="FA9" s="22"/>
+      <c r="FB9" s="22"/>
+      <c r="FC9" s="22"/>
+      <c r="FD9" s="22"/>
+      <c r="FE9" s="22"/>
+      <c r="FF9" s="22"/>
+      <c r="FG9" s="22"/>
+      <c r="FH9" s="22"/>
+      <c r="FI9" s="22"/>
+      <c r="FJ9" s="22"/>
+      <c r="FK9" s="22"/>
+      <c r="FL9" s="22"/>
+      <c r="FM9" s="22"/>
+      <c r="FN9" s="22"/>
+      <c r="FO9" s="22"/>
+      <c r="FP9" s="22"/>
+      <c r="FQ9" s="22"/>
+      <c r="FR9" s="22"/>
+      <c r="FS9" s="22"/>
+      <c r="FT9" s="22"/>
+      <c r="FU9" s="22"/>
+      <c r="FV9" s="22"/>
+      <c r="FW9" s="22"/>
+      <c r="FX9" s="22"/>
+      <c r="FY9" s="22"/>
+      <c r="FZ9" s="22"/>
+      <c r="GA9" s="22"/>
+      <c r="GB9" s="22"/>
+      <c r="GC9" s="22"/>
+      <c r="GD9" s="22"/>
+      <c r="GE9" s="22"/>
+      <c r="GF9" s="22"/>
+      <c r="GG9" s="22"/>
+      <c r="GH9" s="22"/>
+      <c r="GI9" s="22"/>
+      <c r="GJ9" s="22"/>
+      <c r="GK9" s="22"/>
+      <c r="GL9" s="22"/>
+      <c r="GM9" s="22"/>
+      <c r="GN9" s="22"/>
+      <c r="GO9" s="22"/>
+      <c r="GP9" s="22"/>
+      <c r="GQ9" s="22"/>
+      <c r="GR9" s="22"/>
+      <c r="GS9" s="22"/>
+      <c r="GT9" s="22"/>
+      <c r="GU9" s="22"/>
+      <c r="GV9" s="22"/>
+      <c r="GW9" s="22"/>
+      <c r="GX9" s="22"/>
+      <c r="GY9" s="22"/>
+      <c r="GZ9" s="22"/>
+      <c r="HA9" s="22"/>
+      <c r="HB9" s="22"/>
+      <c r="HC9" s="22"/>
+      <c r="HD9" s="22"/>
+      <c r="HE9" s="22"/>
+      <c r="HF9" s="22"/>
+      <c r="HG9" s="22"/>
+      <c r="HH9" s="22"/>
+      <c r="HI9" s="22"/>
+      <c r="HJ9" s="22"/>
+      <c r="HK9" s="22"/>
+      <c r="HL9" s="22"/>
+      <c r="HM9" s="22"/>
+      <c r="HN9" s="22"/>
+      <c r="HO9" s="22"/>
+      <c r="HP9" s="22"/>
+      <c r="HQ9" s="22"/>
+      <c r="HR9" s="22"/>
+      <c r="HS9" s="22"/>
+      <c r="HT9" s="22"/>
+      <c r="HU9" s="22"/>
+      <c r="HV9" s="22"/>
+      <c r="HW9" s="22"/>
+      <c r="HX9" s="22"/>
+      <c r="HY9" s="22"/>
+      <c r="HZ9" s="22"/>
+      <c r="IA9" s="22"/>
+      <c r="IB9" s="22"/>
+      <c r="IC9" s="22"/>
+      <c r="ID9" s="22"/>
+      <c r="IE9" s="22"/>
+      <c r="IF9" s="22"/>
+      <c r="IG9" s="22"/>
+      <c r="IH9" s="22"/>
+      <c r="II9" s="22"/>
+      <c r="IJ9" s="22"/>
+      <c r="IK9" s="22"/>
+      <c r="IL9" s="22"/>
+      <c r="IM9" s="22"/>
+      <c r="IN9" s="22"/>
+      <c r="IO9" s="22"/>
+      <c r="IP9" s="22"/>
+      <c r="IQ9" s="22"/>
+      <c r="IR9" s="22"/>
+      <c r="IS9" s="22"/>
+      <c r="IT9" s="22"/>
+      <c r="IU9" s="22"/>
+      <c r="IV9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M5"/>
+  <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="6" customWidth="1"/>
-    <col min="14" max="256" width="12.25" style="6" customWidth="1"/>
+    <col min="2" max="256" width="12.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="19" customHeight="1">
-      <c r="B2" t="s" s="7">
+    <row r="1" spans="1:256" ht="2" customHeight="1"/>
+    <row r="2" spans="1:256" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3" spans="1:256" ht="22" customHeight="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="12">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="13">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="10">
+      <c r="M3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:256" ht="19" customHeight="1">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="J4" t="s" s="13">
+      <c r="J4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:256" ht="19" customHeight="1">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="10">
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" t="s" s="13">
+      <c r="J5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:256" ht="19" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="22"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="22"/>
+      <c r="CE6" s="22"/>
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
+      <c r="CK6" s="22"/>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
+      <c r="CQ6" s="22"/>
+      <c r="CR6" s="22"/>
+      <c r="CS6" s="22"/>
+      <c r="CT6" s="22"/>
+      <c r="CU6" s="22"/>
+      <c r="CV6" s="22"/>
+      <c r="CW6" s="22"/>
+      <c r="CX6" s="22"/>
+      <c r="CY6" s="22"/>
+      <c r="CZ6" s="22"/>
+      <c r="DA6" s="22"/>
+      <c r="DB6" s="22"/>
+      <c r="DC6" s="22"/>
+      <c r="DD6" s="22"/>
+      <c r="DE6" s="22"/>
+      <c r="DF6" s="22"/>
+      <c r="DG6" s="22"/>
+      <c r="DH6" s="22"/>
+      <c r="DI6" s="22"/>
+      <c r="DJ6" s="22"/>
+      <c r="DK6" s="22"/>
+      <c r="DL6" s="22"/>
+      <c r="DM6" s="22"/>
+      <c r="DN6" s="22"/>
+      <c r="DO6" s="22"/>
+      <c r="DP6" s="22"/>
+      <c r="DQ6" s="22"/>
+      <c r="DR6" s="22"/>
+      <c r="DS6" s="22"/>
+      <c r="DT6" s="22"/>
+      <c r="DU6" s="22"/>
+      <c r="DV6" s="22"/>
+      <c r="DW6" s="22"/>
+      <c r="DX6" s="22"/>
+      <c r="DY6" s="22"/>
+      <c r="DZ6" s="22"/>
+      <c r="EA6" s="22"/>
+      <c r="EB6" s="22"/>
+      <c r="EC6" s="22"/>
+      <c r="ED6" s="22"/>
+      <c r="EE6" s="22"/>
+      <c r="EF6" s="22"/>
+      <c r="EG6" s="22"/>
+      <c r="EH6" s="22"/>
+      <c r="EI6" s="22"/>
+      <c r="EJ6" s="22"/>
+      <c r="EK6" s="22"/>
+      <c r="EL6" s="22"/>
+      <c r="EM6" s="22"/>
+      <c r="EN6" s="22"/>
+      <c r="EO6" s="22"/>
+      <c r="EP6" s="22"/>
+      <c r="EQ6" s="22"/>
+      <c r="ER6" s="22"/>
+      <c r="ES6" s="22"/>
+      <c r="ET6" s="22"/>
+      <c r="EU6" s="22"/>
+      <c r="EV6" s="22"/>
+      <c r="EW6" s="22"/>
+      <c r="EX6" s="22"/>
+      <c r="EY6" s="22"/>
+      <c r="EZ6" s="22"/>
+      <c r="FA6" s="22"/>
+      <c r="FB6" s="22"/>
+      <c r="FC6" s="22"/>
+      <c r="FD6" s="22"/>
+      <c r="FE6" s="22"/>
+      <c r="FF6" s="22"/>
+      <c r="FG6" s="22"/>
+      <c r="FH6" s="22"/>
+      <c r="FI6" s="22"/>
+      <c r="FJ6" s="22"/>
+      <c r="FK6" s="22"/>
+      <c r="FL6" s="22"/>
+      <c r="FM6" s="22"/>
+      <c r="FN6" s="22"/>
+      <c r="FO6" s="22"/>
+      <c r="FP6" s="22"/>
+      <c r="FQ6" s="22"/>
+      <c r="FR6" s="22"/>
+      <c r="FS6" s="22"/>
+      <c r="FT6" s="22"/>
+      <c r="FU6" s="22"/>
+      <c r="FV6" s="22"/>
+      <c r="FW6" s="22"/>
+      <c r="FX6" s="22"/>
+      <c r="FY6" s="22"/>
+      <c r="FZ6" s="22"/>
+      <c r="GA6" s="22"/>
+      <c r="GB6" s="22"/>
+      <c r="GC6" s="22"/>
+      <c r="GD6" s="22"/>
+      <c r="GE6" s="22"/>
+      <c r="GF6" s="22"/>
+      <c r="GG6" s="22"/>
+      <c r="GH6" s="22"/>
+      <c r="GI6" s="22"/>
+      <c r="GJ6" s="22"/>
+      <c r="GK6" s="22"/>
+      <c r="GL6" s="22"/>
+      <c r="GM6" s="22"/>
+      <c r="GN6" s="22"/>
+      <c r="GO6" s="22"/>
+      <c r="GP6" s="22"/>
+      <c r="GQ6" s="22"/>
+      <c r="GR6" s="22"/>
+      <c r="GS6" s="22"/>
+      <c r="GT6" s="22"/>
+      <c r="GU6" s="22"/>
+      <c r="GV6" s="22"/>
+      <c r="GW6" s="22"/>
+      <c r="GX6" s="22"/>
+      <c r="GY6" s="22"/>
+      <c r="GZ6" s="22"/>
+      <c r="HA6" s="22"/>
+      <c r="HB6" s="22"/>
+      <c r="HC6" s="22"/>
+      <c r="HD6" s="22"/>
+      <c r="HE6" s="22"/>
+      <c r="HF6" s="22"/>
+      <c r="HG6" s="22"/>
+      <c r="HH6" s="22"/>
+      <c r="HI6" s="22"/>
+      <c r="HJ6" s="22"/>
+      <c r="HK6" s="22"/>
+      <c r="HL6" s="22"/>
+      <c r="HM6" s="22"/>
+      <c r="HN6" s="22"/>
+      <c r="HO6" s="22"/>
+      <c r="HP6" s="22"/>
+      <c r="HQ6" s="22"/>
+      <c r="HR6" s="22"/>
+      <c r="HS6" s="22"/>
+      <c r="HT6" s="22"/>
+      <c r="HU6" s="22"/>
+      <c r="HV6" s="22"/>
+      <c r="HW6" s="22"/>
+      <c r="HX6" s="22"/>
+      <c r="HY6" s="22"/>
+      <c r="HZ6" s="22"/>
+      <c r="IA6" s="22"/>
+      <c r="IB6" s="22"/>
+      <c r="IC6" s="22"/>
+      <c r="ID6" s="22"/>
+      <c r="IE6" s="22"/>
+      <c r="IF6" s="22"/>
+      <c r="IG6" s="22"/>
+      <c r="IH6" s="22"/>
+      <c r="II6" s="22"/>
+      <c r="IJ6" s="22"/>
+      <c r="IK6" s="22"/>
+      <c r="IL6" s="22"/>
+      <c r="IM6" s="22"/>
+      <c r="IN6" s="22"/>
+      <c r="IO6" s="22"/>
+      <c r="IP6" s="22"/>
+      <c r="IQ6" s="22"/>
+      <c r="IR6" s="22"/>
+      <c r="IS6" s="22"/>
+      <c r="IT6" s="22"/>
+      <c r="IU6" s="22"/>
+      <c r="IV6" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20" style="18" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="22" customHeight="1">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19" customHeight="1">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="2:13" ht="19" customHeight="1">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="11"/>
@@ -1972,165 +3055,163 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M5"/>
+  <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="20.0547" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="18" customWidth="1"/>
-    <col min="14" max="256" width="12.25" style="18" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20" style="20" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="19" customHeight="1">
-      <c r="B2" t="s" s="7">
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3" spans="2:13" ht="22" customHeight="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s" s="10">
+      <c r="G3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="12">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="13">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="10">
+      <c r="M3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="2:13" ht="19" customHeight="1">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s" s="19">
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s" s="10">
+      <c r="G4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="12">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="13">
+      <c r="J4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="2:13" ht="19" customHeight="1">
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s" s="9">
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s" s="10">
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="12">
         <v>11</v>
       </c>
-      <c r="J5" t="s" s="13">
+      <c r="J5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="11"/>
@@ -2139,302 +3220,131 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="0.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.0547" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="20" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="20" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="20" customWidth="1"/>
-    <col min="14" max="256" width="12.25" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="19" customHeight="1">
-      <c r="B2" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="1">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="I3" s="12">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" t="s" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M4"/>
+  <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="21" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="21" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="21" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="21" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="21" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="21" customWidth="1"/>
-    <col min="14" max="256" width="12.25" style="21" customWidth="1"/>
+    <col min="2" max="256" width="12.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="19" customHeight="1">
-      <c r="B2" t="s" s="7">
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3" spans="2:13" ht="22" customHeight="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="12">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="13">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="10">
+      <c r="M3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="2:13" ht="19" customHeight="1">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="D4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="12">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="13">
+      <c r="J4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="11"/>
@@ -2443,129 +3353,125 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M4"/>
+  <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="22" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="22" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="22" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="22" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="22" customWidth="1"/>
-    <col min="14" max="256" width="12.25" style="22" customWidth="1"/>
+    <col min="2" max="256" width="12.25" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="19" customHeight="1">
-      <c r="B2" t="s" s="7">
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="8">
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s" s="8">
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s" s="8">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="8">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3" spans="2:13" ht="22" customHeight="1">
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" t="s" s="10">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="10">
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="12">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="13">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" t="s" s="10">
+      <c r="M3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="2:13" ht="19" customHeight="1">
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="23"/>
       <c r="F4" s="11"/>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="J4" t="s" s="13">
+      <c r="J4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="11"/>
@@ -2574,9 +3480,404 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20" style="22" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="22" customHeight="1">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19" customHeight="1">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20" style="22" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="22" customHeight="1">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19" customHeight="1">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/userapi/TableDesign.xlsx
+++ b/docs/userapi/TableDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="60" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="7440" yWindow="60" windowWidth="15960" windowHeight="18080" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Messages" sheetId="6" r:id="rId6"/>
     <sheet name="Reset Token" sheetId="8" r:id="rId7"/>
     <sheet name="Activator Token" sheetId="9" r:id="rId8"/>
+    <sheet name="Login Token" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -267,6 +268,12 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>Login Token URL</t>
+  </si>
+  <si>
+    <t>login_token</t>
   </si>
 </sst>
 </file>
@@ -378,8 +385,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -482,17 +495,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1813,13 +1828,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2469,6 +2484,274 @@
       <c r="IU9" s="22"/>
       <c r="IV9" s="22"/>
     </row>
+    <row r="10" spans="1:256" ht="17" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="22"/>
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="22"/>
+      <c r="BQ10" s="22"/>
+      <c r="BR10" s="22"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="22"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BX10" s="22"/>
+      <c r="BY10" s="22"/>
+      <c r="BZ10" s="22"/>
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="22"/>
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="22"/>
+      <c r="CF10" s="22"/>
+      <c r="CG10" s="22"/>
+      <c r="CH10" s="22"/>
+      <c r="CI10" s="22"/>
+      <c r="CJ10" s="22"/>
+      <c r="CK10" s="22"/>
+      <c r="CL10" s="22"/>
+      <c r="CM10" s="22"/>
+      <c r="CN10" s="22"/>
+      <c r="CO10" s="22"/>
+      <c r="CP10" s="22"/>
+      <c r="CQ10" s="22"/>
+      <c r="CR10" s="22"/>
+      <c r="CS10" s="22"/>
+      <c r="CT10" s="22"/>
+      <c r="CU10" s="22"/>
+      <c r="CV10" s="22"/>
+      <c r="CW10" s="22"/>
+      <c r="CX10" s="22"/>
+      <c r="CY10" s="22"/>
+      <c r="CZ10" s="22"/>
+      <c r="DA10" s="22"/>
+      <c r="DB10" s="22"/>
+      <c r="DC10" s="22"/>
+      <c r="DD10" s="22"/>
+      <c r="DE10" s="22"/>
+      <c r="DF10" s="22"/>
+      <c r="DG10" s="22"/>
+      <c r="DH10" s="22"/>
+      <c r="DI10" s="22"/>
+      <c r="DJ10" s="22"/>
+      <c r="DK10" s="22"/>
+      <c r="DL10" s="22"/>
+      <c r="DM10" s="22"/>
+      <c r="DN10" s="22"/>
+      <c r="DO10" s="22"/>
+      <c r="DP10" s="22"/>
+      <c r="DQ10" s="22"/>
+      <c r="DR10" s="22"/>
+      <c r="DS10" s="22"/>
+      <c r="DT10" s="22"/>
+      <c r="DU10" s="22"/>
+      <c r="DV10" s="22"/>
+      <c r="DW10" s="22"/>
+      <c r="DX10" s="22"/>
+      <c r="DY10" s="22"/>
+      <c r="DZ10" s="22"/>
+      <c r="EA10" s="22"/>
+      <c r="EB10" s="22"/>
+      <c r="EC10" s="22"/>
+      <c r="ED10" s="22"/>
+      <c r="EE10" s="22"/>
+      <c r="EF10" s="22"/>
+      <c r="EG10" s="22"/>
+      <c r="EH10" s="22"/>
+      <c r="EI10" s="22"/>
+      <c r="EJ10" s="22"/>
+      <c r="EK10" s="22"/>
+      <c r="EL10" s="22"/>
+      <c r="EM10" s="22"/>
+      <c r="EN10" s="22"/>
+      <c r="EO10" s="22"/>
+      <c r="EP10" s="22"/>
+      <c r="EQ10" s="22"/>
+      <c r="ER10" s="22"/>
+      <c r="ES10" s="22"/>
+      <c r="ET10" s="22"/>
+      <c r="EU10" s="22"/>
+      <c r="EV10" s="22"/>
+      <c r="EW10" s="22"/>
+      <c r="EX10" s="22"/>
+      <c r="EY10" s="22"/>
+      <c r="EZ10" s="22"/>
+      <c r="FA10" s="22"/>
+      <c r="FB10" s="22"/>
+      <c r="FC10" s="22"/>
+      <c r="FD10" s="22"/>
+      <c r="FE10" s="22"/>
+      <c r="FF10" s="22"/>
+      <c r="FG10" s="22"/>
+      <c r="FH10" s="22"/>
+      <c r="FI10" s="22"/>
+      <c r="FJ10" s="22"/>
+      <c r="FK10" s="22"/>
+      <c r="FL10" s="22"/>
+      <c r="FM10" s="22"/>
+      <c r="FN10" s="22"/>
+      <c r="FO10" s="22"/>
+      <c r="FP10" s="22"/>
+      <c r="FQ10" s="22"/>
+      <c r="FR10" s="22"/>
+      <c r="FS10" s="22"/>
+      <c r="FT10" s="22"/>
+      <c r="FU10" s="22"/>
+      <c r="FV10" s="22"/>
+      <c r="FW10" s="22"/>
+      <c r="FX10" s="22"/>
+      <c r="FY10" s="22"/>
+      <c r="FZ10" s="22"/>
+      <c r="GA10" s="22"/>
+      <c r="GB10" s="22"/>
+      <c r="GC10" s="22"/>
+      <c r="GD10" s="22"/>
+      <c r="GE10" s="22"/>
+      <c r="GF10" s="22"/>
+      <c r="GG10" s="22"/>
+      <c r="GH10" s="22"/>
+      <c r="GI10" s="22"/>
+      <c r="GJ10" s="22"/>
+      <c r="GK10" s="22"/>
+      <c r="GL10" s="22"/>
+      <c r="GM10" s="22"/>
+      <c r="GN10" s="22"/>
+      <c r="GO10" s="22"/>
+      <c r="GP10" s="22"/>
+      <c r="GQ10" s="22"/>
+      <c r="GR10" s="22"/>
+      <c r="GS10" s="22"/>
+      <c r="GT10" s="22"/>
+      <c r="GU10" s="22"/>
+      <c r="GV10" s="22"/>
+      <c r="GW10" s="22"/>
+      <c r="GX10" s="22"/>
+      <c r="GY10" s="22"/>
+      <c r="GZ10" s="22"/>
+      <c r="HA10" s="22"/>
+      <c r="HB10" s="22"/>
+      <c r="HC10" s="22"/>
+      <c r="HD10" s="22"/>
+      <c r="HE10" s="22"/>
+      <c r="HF10" s="22"/>
+      <c r="HG10" s="22"/>
+      <c r="HH10" s="22"/>
+      <c r="HI10" s="22"/>
+      <c r="HJ10" s="22"/>
+      <c r="HK10" s="22"/>
+      <c r="HL10" s="22"/>
+      <c r="HM10" s="22"/>
+      <c r="HN10" s="22"/>
+      <c r="HO10" s="22"/>
+      <c r="HP10" s="22"/>
+      <c r="HQ10" s="22"/>
+      <c r="HR10" s="22"/>
+      <c r="HS10" s="22"/>
+      <c r="HT10" s="22"/>
+      <c r="HU10" s="22"/>
+      <c r="HV10" s="22"/>
+      <c r="HW10" s="22"/>
+      <c r="HX10" s="22"/>
+      <c r="HY10" s="22"/>
+      <c r="HZ10" s="22"/>
+      <c r="IA10" s="22"/>
+      <c r="IB10" s="22"/>
+      <c r="IC10" s="22"/>
+      <c r="ID10" s="22"/>
+      <c r="IE10" s="22"/>
+      <c r="IF10" s="22"/>
+      <c r="IG10" s="22"/>
+      <c r="IH10" s="22"/>
+      <c r="II10" s="22"/>
+      <c r="IJ10" s="22"/>
+      <c r="IK10" s="22"/>
+      <c r="IL10" s="22"/>
+      <c r="IM10" s="22"/>
+      <c r="IN10" s="22"/>
+      <c r="IO10" s="22"/>
+      <c r="IP10" s="22"/>
+      <c r="IQ10" s="22"/>
+      <c r="IR10" s="22"/>
+      <c r="IS10" s="22"/>
+      <c r="IT10" s="22"/>
+      <c r="IU10" s="22"/>
+      <c r="IV10" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -3373,7 +3656,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
@@ -3499,11 +3782,11 @@
   </sheetPr>
   <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -3610,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
@@ -3880,4 +4163,201 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20" style="22" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="2" customHeight="1"/>
+    <row r="2" spans="2:13" ht="19" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="22" customHeight="1">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19" customHeight="1">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="2:13" s="22" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/userapi/TableDesign.xlsx
+++ b/docs/userapi/TableDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="1100" windowWidth="15960" windowHeight="18080" activeTab="1"/>
+    <workbookView xWindow="14300" yWindow="1100" windowWidth="15960" windowHeight="18080" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Messages" sheetId="6" r:id="rId6"/>
     <sheet name="Login Token" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -258,12 +258,18 @@
   <si>
     <t>Email</t>
   </si>
+  <si>
+    <t>Time the user is created</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -309,6 +315,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Kaiti SC Black"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="5">
@@ -512,8 +530,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -640,7 +664,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2194,8 +2220,8 @@
   </sheetPr>
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2204,7 +2230,7 @@
     <col min="2" max="256" width="12.25" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="8" customHeight="1">
+    <row r="1" spans="1:256" ht="8" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2224,7 +2250,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="19" customHeight="1">
+    <row r="2" spans="1:256" ht="19" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
@@ -2268,7 +2294,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1">
+    <row r="3" spans="1:256" ht="22" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="26">
         <v>1</v>
@@ -2282,7 +2308,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>33</v>
@@ -2304,7 +2330,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="19" customHeight="1">
+    <row r="4" spans="1:256" ht="19" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="26">
         <v>2</v>
@@ -2334,7 +2360,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="19" customHeight="1">
+    <row r="5" spans="1:256" ht="19" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="26">
         <v>3</v>
@@ -2364,7 +2390,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="19" customHeight="1">
+    <row r="6" spans="1:256" ht="19" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="26">
         <v>4</v>
@@ -2394,27 +2420,277 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:256" ht="19" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="32">
+        <v>11</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="42"/>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="42"/>
+      <c r="BT7" s="42"/>
+      <c r="BU7" s="42"/>
+      <c r="BV7" s="42"/>
+      <c r="BW7" s="42"/>
+      <c r="BX7" s="42"/>
+      <c r="BY7" s="42"/>
+      <c r="BZ7" s="42"/>
+      <c r="CA7" s="42"/>
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="42"/>
+      <c r="CG7" s="42"/>
+      <c r="CH7" s="42"/>
+      <c r="CI7" s="42"/>
+      <c r="CJ7" s="42"/>
+      <c r="CK7" s="42"/>
+      <c r="CL7" s="42"/>
+      <c r="CM7" s="42"/>
+      <c r="CN7" s="42"/>
+      <c r="CO7" s="42"/>
+      <c r="CP7" s="42"/>
+      <c r="CQ7" s="42"/>
+      <c r="CR7" s="42"/>
+      <c r="CS7" s="42"/>
+      <c r="CT7" s="42"/>
+      <c r="CU7" s="42"/>
+      <c r="CV7" s="42"/>
+      <c r="CW7" s="42"/>
+      <c r="CX7" s="42"/>
+      <c r="CY7" s="42"/>
+      <c r="CZ7" s="42"/>
+      <c r="DA7" s="42"/>
+      <c r="DB7" s="42"/>
+      <c r="DC7" s="42"/>
+      <c r="DD7" s="42"/>
+      <c r="DE7" s="42"/>
+      <c r="DF7" s="42"/>
+      <c r="DG7" s="42"/>
+      <c r="DH7" s="42"/>
+      <c r="DI7" s="42"/>
+      <c r="DJ7" s="42"/>
+      <c r="DK7" s="42"/>
+      <c r="DL7" s="42"/>
+      <c r="DM7" s="42"/>
+      <c r="DN7" s="42"/>
+      <c r="DO7" s="42"/>
+      <c r="DP7" s="42"/>
+      <c r="DQ7" s="42"/>
+      <c r="DR7" s="42"/>
+      <c r="DS7" s="42"/>
+      <c r="DT7" s="42"/>
+      <c r="DU7" s="42"/>
+      <c r="DV7" s="42"/>
+      <c r="DW7" s="42"/>
+      <c r="DX7" s="42"/>
+      <c r="DY7" s="42"/>
+      <c r="DZ7" s="42"/>
+      <c r="EA7" s="42"/>
+      <c r="EB7" s="42"/>
+      <c r="EC7" s="42"/>
+      <c r="ED7" s="42"/>
+      <c r="EE7" s="42"/>
+      <c r="EF7" s="42"/>
+      <c r="EG7" s="42"/>
+      <c r="EH7" s="42"/>
+      <c r="EI7" s="42"/>
+      <c r="EJ7" s="42"/>
+      <c r="EK7" s="42"/>
+      <c r="EL7" s="42"/>
+      <c r="EM7" s="42"/>
+      <c r="EN7" s="42"/>
+      <c r="EO7" s="42"/>
+      <c r="EP7" s="42"/>
+      <c r="EQ7" s="42"/>
+      <c r="ER7" s="42"/>
+      <c r="ES7" s="42"/>
+      <c r="ET7" s="42"/>
+      <c r="EU7" s="42"/>
+      <c r="EV7" s="42"/>
+      <c r="EW7" s="42"/>
+      <c r="EX7" s="42"/>
+      <c r="EY7" s="42"/>
+      <c r="EZ7" s="42"/>
+      <c r="FA7" s="42"/>
+      <c r="FB7" s="42"/>
+      <c r="FC7" s="42"/>
+      <c r="FD7" s="42"/>
+      <c r="FE7" s="42"/>
+      <c r="FF7" s="42"/>
+      <c r="FG7" s="42"/>
+      <c r="FH7" s="42"/>
+      <c r="FI7" s="42"/>
+      <c r="FJ7" s="42"/>
+      <c r="FK7" s="42"/>
+      <c r="FL7" s="42"/>
+      <c r="FM7" s="42"/>
+      <c r="FN7" s="42"/>
+      <c r="FO7" s="42"/>
+      <c r="FP7" s="42"/>
+      <c r="FQ7" s="42"/>
+      <c r="FR7" s="42"/>
+      <c r="FS7" s="42"/>
+      <c r="FT7" s="42"/>
+      <c r="FU7" s="42"/>
+      <c r="FV7" s="42"/>
+      <c r="FW7" s="42"/>
+      <c r="FX7" s="42"/>
+      <c r="FY7" s="42"/>
+      <c r="FZ7" s="42"/>
+      <c r="GA7" s="42"/>
+      <c r="GB7" s="42"/>
+      <c r="GC7" s="42"/>
+      <c r="GD7" s="42"/>
+      <c r="GE7" s="42"/>
+      <c r="GF7" s="42"/>
+      <c r="GG7" s="42"/>
+      <c r="GH7" s="42"/>
+      <c r="GI7" s="42"/>
+      <c r="GJ7" s="42"/>
+      <c r="GK7" s="42"/>
+      <c r="GL7" s="42"/>
+      <c r="GM7" s="42"/>
+      <c r="GN7" s="42"/>
+      <c r="GO7" s="42"/>
+      <c r="GP7" s="42"/>
+      <c r="GQ7" s="42"/>
+      <c r="GR7" s="42"/>
+      <c r="GS7" s="42"/>
+      <c r="GT7" s="42"/>
+      <c r="GU7" s="42"/>
+      <c r="GV7" s="42"/>
+      <c r="GW7" s="42"/>
+      <c r="GX7" s="42"/>
+      <c r="GY7" s="42"/>
+      <c r="GZ7" s="42"/>
+      <c r="HA7" s="42"/>
+      <c r="HB7" s="42"/>
+      <c r="HC7" s="42"/>
+      <c r="HD7" s="42"/>
+      <c r="HE7" s="42"/>
+      <c r="HF7" s="42"/>
+      <c r="HG7" s="42"/>
+      <c r="HH7" s="42"/>
+      <c r="HI7" s="42"/>
+      <c r="HJ7" s="42"/>
+      <c r="HK7" s="42"/>
+      <c r="HL7" s="42"/>
+      <c r="HM7" s="42"/>
+      <c r="HN7" s="42"/>
+      <c r="HO7" s="42"/>
+      <c r="HP7" s="42"/>
+      <c r="HQ7" s="42"/>
+      <c r="HR7" s="42"/>
+      <c r="HS7" s="42"/>
+      <c r="HT7" s="42"/>
+      <c r="HU7" s="42"/>
+      <c r="HV7" s="42"/>
+      <c r="HW7" s="42"/>
+      <c r="HX7" s="42"/>
+      <c r="HY7" s="42"/>
+      <c r="HZ7" s="42"/>
+      <c r="IA7" s="42"/>
+      <c r="IB7" s="42"/>
+      <c r="IC7" s="42"/>
+      <c r="ID7" s="42"/>
+      <c r="IE7" s="42"/>
+      <c r="IF7" s="42"/>
+      <c r="IG7" s="42"/>
+      <c r="IH7" s="42"/>
+      <c r="II7" s="42"/>
+      <c r="IJ7" s="42"/>
+      <c r="IK7" s="42"/>
+      <c r="IL7" s="42"/>
+      <c r="IM7" s="42"/>
+      <c r="IN7" s="42"/>
+      <c r="IO7" s="42"/>
+      <c r="IP7" s="42"/>
+      <c r="IQ7" s="42"/>
+      <c r="IR7" s="42"/>
+      <c r="IS7" s="42"/>
+      <c r="IT7" s="42"/>
+      <c r="IU7" s="42"/>
+      <c r="IV7" s="42"/>
+    </row>
+    <row r="8" spans="1:256" ht="20" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2434,7 +2710,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:256" ht="20" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -3445,7 +3721,7 @@
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>

--- a/docs/userapi/TableDesign.xlsx
+++ b/docs/userapi/TableDesign.xlsx
@@ -4,16 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="1100" windowWidth="15960" windowHeight="18080" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="14300" yWindow="1100" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Follow" sheetId="3" r:id="rId3"/>
-    <sheet name="Like" sheetId="4" r:id="rId4"/>
-    <sheet name="Users' Messages" sheetId="5" r:id="rId5"/>
-    <sheet name="Messages" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Token" sheetId="7" r:id="rId7"/>
+    <sheet name="Login Token" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -172,61 +168,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>Account Status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>token</t>
-  </si>
-  <si>
-    <t>idfollow</t>
-  </si>
-  <si>
-    <t>ID of Follower</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>user_follows_id</t>
-  </si>
-  <si>
-    <t>ID of User Who is Followed</t>
-  </si>
-  <si>
-    <t>user_followed_id</t>
-  </si>
-  <si>
-    <t>idlike</t>
-  </si>
-  <si>
-    <t>ID of User</t>
-  </si>
-  <si>
-    <t>user_likes_id</t>
-  </si>
-  <si>
-    <t>ID of Message liked by User</t>
-  </si>
-  <si>
-    <t>msg_liked_id</t>
-  </si>
-  <si>
-    <t>idmsg</t>
-  </si>
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>id</t>
@@ -541,7 +483,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -639,25 +581,10 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2218,16 +2145,18 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="1" style="23" customWidth="1"/>
-    <col min="2" max="256" width="12.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23" style="23" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="8" customHeight="1">
@@ -2308,7 +2237,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>33</v>
@@ -2336,13 +2265,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="27" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>36</v>
@@ -2396,18 +2325,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="32">
+        <v>11</v>
+      </c>
       <c r="J6" s="30" t="s">
         <v>34</v>
       </c>
@@ -2419,316 +2350,284 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+      <c r="CA6" s="37"/>
+      <c r="CB6" s="37"/>
+      <c r="CC6" s="37"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="37"/>
+      <c r="CH6" s="37"/>
+      <c r="CI6" s="37"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="37"/>
+      <c r="CO6" s="37"/>
+      <c r="CP6" s="37"/>
+      <c r="CQ6" s="37"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
+      <c r="CT6" s="37"/>
+      <c r="CU6" s="37"/>
+      <c r="CV6" s="37"/>
+      <c r="CW6" s="37"/>
+      <c r="CX6" s="37"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
+      <c r="DA6" s="37"/>
+      <c r="DB6" s="37"/>
+      <c r="DC6" s="37"/>
+      <c r="DD6" s="37"/>
+      <c r="DE6" s="37"/>
+      <c r="DF6" s="37"/>
+      <c r="DG6" s="37"/>
+      <c r="DH6" s="37"/>
+      <c r="DI6" s="37"/>
+      <c r="DJ6" s="37"/>
+      <c r="DK6" s="37"/>
+      <c r="DL6" s="37"/>
+      <c r="DM6" s="37"/>
+      <c r="DN6" s="37"/>
+      <c r="DO6" s="37"/>
+      <c r="DP6" s="37"/>
+      <c r="DQ6" s="37"/>
+      <c r="DR6" s="37"/>
+      <c r="DS6" s="37"/>
+      <c r="DT6" s="37"/>
+      <c r="DU6" s="37"/>
+      <c r="DV6" s="37"/>
+      <c r="DW6" s="37"/>
+      <c r="DX6" s="37"/>
+      <c r="DY6" s="37"/>
+      <c r="DZ6" s="37"/>
+      <c r="EA6" s="37"/>
+      <c r="EB6" s="37"/>
+      <c r="EC6" s="37"/>
+      <c r="ED6" s="37"/>
+      <c r="EE6" s="37"/>
+      <c r="EF6" s="37"/>
+      <c r="EG6" s="37"/>
+      <c r="EH6" s="37"/>
+      <c r="EI6" s="37"/>
+      <c r="EJ6" s="37"/>
+      <c r="EK6" s="37"/>
+      <c r="EL6" s="37"/>
+      <c r="EM6" s="37"/>
+      <c r="EN6" s="37"/>
+      <c r="EO6" s="37"/>
+      <c r="EP6" s="37"/>
+      <c r="EQ6" s="37"/>
+      <c r="ER6" s="37"/>
+      <c r="ES6" s="37"/>
+      <c r="ET6" s="37"/>
+      <c r="EU6" s="37"/>
+      <c r="EV6" s="37"/>
+      <c r="EW6" s="37"/>
+      <c r="EX6" s="37"/>
+      <c r="EY6" s="37"/>
+      <c r="EZ6" s="37"/>
+      <c r="FA6" s="37"/>
+      <c r="FB6" s="37"/>
+      <c r="FC6" s="37"/>
+      <c r="FD6" s="37"/>
+      <c r="FE6" s="37"/>
+      <c r="FF6" s="37"/>
+      <c r="FG6" s="37"/>
+      <c r="FH6" s="37"/>
+      <c r="FI6" s="37"/>
+      <c r="FJ6" s="37"/>
+      <c r="FK6" s="37"/>
+      <c r="FL6" s="37"/>
+      <c r="FM6" s="37"/>
+      <c r="FN6" s="37"/>
+      <c r="FO6" s="37"/>
+      <c r="FP6" s="37"/>
+      <c r="FQ6" s="37"/>
+      <c r="FR6" s="37"/>
+      <c r="FS6" s="37"/>
+      <c r="FT6" s="37"/>
+      <c r="FU6" s="37"/>
+      <c r="FV6" s="37"/>
+      <c r="FW6" s="37"/>
+      <c r="FX6" s="37"/>
+      <c r="FY6" s="37"/>
+      <c r="FZ6" s="37"/>
+      <c r="GA6" s="37"/>
+      <c r="GB6" s="37"/>
+      <c r="GC6" s="37"/>
+      <c r="GD6" s="37"/>
+      <c r="GE6" s="37"/>
+      <c r="GF6" s="37"/>
+      <c r="GG6" s="37"/>
+      <c r="GH6" s="37"/>
+      <c r="GI6" s="37"/>
+      <c r="GJ6" s="37"/>
+      <c r="GK6" s="37"/>
+      <c r="GL6" s="37"/>
+      <c r="GM6" s="37"/>
+      <c r="GN6" s="37"/>
+      <c r="GO6" s="37"/>
+      <c r="GP6" s="37"/>
+      <c r="GQ6" s="37"/>
+      <c r="GR6" s="37"/>
+      <c r="GS6" s="37"/>
+      <c r="GT6" s="37"/>
+      <c r="GU6" s="37"/>
+      <c r="GV6" s="37"/>
+      <c r="GW6" s="37"/>
+      <c r="GX6" s="37"/>
+      <c r="GY6" s="37"/>
+      <c r="GZ6" s="37"/>
+      <c r="HA6" s="37"/>
+      <c r="HB6" s="37"/>
+      <c r="HC6" s="37"/>
+      <c r="HD6" s="37"/>
+      <c r="HE6" s="37"/>
+      <c r="HF6" s="37"/>
+      <c r="HG6" s="37"/>
+      <c r="HH6" s="37"/>
+      <c r="HI6" s="37"/>
+      <c r="HJ6" s="37"/>
+      <c r="HK6" s="37"/>
+      <c r="HL6" s="37"/>
+      <c r="HM6" s="37"/>
+      <c r="HN6" s="37"/>
+      <c r="HO6" s="37"/>
+      <c r="HP6" s="37"/>
+      <c r="HQ6" s="37"/>
+      <c r="HR6" s="37"/>
+      <c r="HS6" s="37"/>
+      <c r="HT6" s="37"/>
+      <c r="HU6" s="37"/>
+      <c r="HV6" s="37"/>
+      <c r="HW6" s="37"/>
+      <c r="HX6" s="37"/>
+      <c r="HY6" s="37"/>
+      <c r="HZ6" s="37"/>
+      <c r="IA6" s="37"/>
+      <c r="IB6" s="37"/>
+      <c r="IC6" s="37"/>
+      <c r="ID6" s="37"/>
+      <c r="IE6" s="37"/>
+      <c r="IF6" s="37"/>
+      <c r="IG6" s="37"/>
+      <c r="IH6" s="37"/>
+      <c r="II6" s="37"/>
+      <c r="IJ6" s="37"/>
+      <c r="IK6" s="37"/>
+      <c r="IL6" s="37"/>
+      <c r="IM6" s="37"/>
+      <c r="IN6" s="37"/>
+      <c r="IO6" s="37"/>
+      <c r="IP6" s="37"/>
+      <c r="IQ6" s="37"/>
+      <c r="IR6" s="37"/>
+      <c r="IS6" s="37"/>
+      <c r="IT6" s="37"/>
+      <c r="IU6" s="37"/>
+      <c r="IV6" s="37"/>
     </row>
-    <row r="7" spans="1:256" ht="19" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="26">
-        <v>5</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="32">
-        <v>11</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="42"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="42"/>
-      <c r="BQ7" s="42"/>
-      <c r="BR7" s="42"/>
-      <c r="BS7" s="42"/>
-      <c r="BT7" s="42"/>
-      <c r="BU7" s="42"/>
-      <c r="BV7" s="42"/>
-      <c r="BW7" s="42"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="42"/>
-      <c r="BZ7" s="42"/>
-      <c r="CA7" s="42"/>
-      <c r="CB7" s="42"/>
-      <c r="CC7" s="42"/>
-      <c r="CD7" s="42"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="42"/>
-      <c r="CG7" s="42"/>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="42"/>
-      <c r="CJ7" s="42"/>
-      <c r="CK7" s="42"/>
-      <c r="CL7" s="42"/>
-      <c r="CM7" s="42"/>
-      <c r="CN7" s="42"/>
-      <c r="CO7" s="42"/>
-      <c r="CP7" s="42"/>
-      <c r="CQ7" s="42"/>
-      <c r="CR7" s="42"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="42"/>
-      <c r="CU7" s="42"/>
-      <c r="CV7" s="42"/>
-      <c r="CW7" s="42"/>
-      <c r="CX7" s="42"/>
-      <c r="CY7" s="42"/>
-      <c r="CZ7" s="42"/>
-      <c r="DA7" s="42"/>
-      <c r="DB7" s="42"/>
-      <c r="DC7" s="42"/>
-      <c r="DD7" s="42"/>
-      <c r="DE7" s="42"/>
-      <c r="DF7" s="42"/>
-      <c r="DG7" s="42"/>
-      <c r="DH7" s="42"/>
-      <c r="DI7" s="42"/>
-      <c r="DJ7" s="42"/>
-      <c r="DK7" s="42"/>
-      <c r="DL7" s="42"/>
-      <c r="DM7" s="42"/>
-      <c r="DN7" s="42"/>
-      <c r="DO7" s="42"/>
-      <c r="DP7" s="42"/>
-      <c r="DQ7" s="42"/>
-      <c r="DR7" s="42"/>
-      <c r="DS7" s="42"/>
-      <c r="DT7" s="42"/>
-      <c r="DU7" s="42"/>
-      <c r="DV7" s="42"/>
-      <c r="DW7" s="42"/>
-      <c r="DX7" s="42"/>
-      <c r="DY7" s="42"/>
-      <c r="DZ7" s="42"/>
-      <c r="EA7" s="42"/>
-      <c r="EB7" s="42"/>
-      <c r="EC7" s="42"/>
-      <c r="ED7" s="42"/>
-      <c r="EE7" s="42"/>
-      <c r="EF7" s="42"/>
-      <c r="EG7" s="42"/>
-      <c r="EH7" s="42"/>
-      <c r="EI7" s="42"/>
-      <c r="EJ7" s="42"/>
-      <c r="EK7" s="42"/>
-      <c r="EL7" s="42"/>
-      <c r="EM7" s="42"/>
-      <c r="EN7" s="42"/>
-      <c r="EO7" s="42"/>
-      <c r="EP7" s="42"/>
-      <c r="EQ7" s="42"/>
-      <c r="ER7" s="42"/>
-      <c r="ES7" s="42"/>
-      <c r="ET7" s="42"/>
-      <c r="EU7" s="42"/>
-      <c r="EV7" s="42"/>
-      <c r="EW7" s="42"/>
-      <c r="EX7" s="42"/>
-      <c r="EY7" s="42"/>
-      <c r="EZ7" s="42"/>
-      <c r="FA7" s="42"/>
-      <c r="FB7" s="42"/>
-      <c r="FC7" s="42"/>
-      <c r="FD7" s="42"/>
-      <c r="FE7" s="42"/>
-      <c r="FF7" s="42"/>
-      <c r="FG7" s="42"/>
-      <c r="FH7" s="42"/>
-      <c r="FI7" s="42"/>
-      <c r="FJ7" s="42"/>
-      <c r="FK7" s="42"/>
-      <c r="FL7" s="42"/>
-      <c r="FM7" s="42"/>
-      <c r="FN7" s="42"/>
-      <c r="FO7" s="42"/>
-      <c r="FP7" s="42"/>
-      <c r="FQ7" s="42"/>
-      <c r="FR7" s="42"/>
-      <c r="FS7" s="42"/>
-      <c r="FT7" s="42"/>
-      <c r="FU7" s="42"/>
-      <c r="FV7" s="42"/>
-      <c r="FW7" s="42"/>
-      <c r="FX7" s="42"/>
-      <c r="FY7" s="42"/>
-      <c r="FZ7" s="42"/>
-      <c r="GA7" s="42"/>
-      <c r="GB7" s="42"/>
-      <c r="GC7" s="42"/>
-      <c r="GD7" s="42"/>
-      <c r="GE7" s="42"/>
-      <c r="GF7" s="42"/>
-      <c r="GG7" s="42"/>
-      <c r="GH7" s="42"/>
-      <c r="GI7" s="42"/>
-      <c r="GJ7" s="42"/>
-      <c r="GK7" s="42"/>
-      <c r="GL7" s="42"/>
-      <c r="GM7" s="42"/>
-      <c r="GN7" s="42"/>
-      <c r="GO7" s="42"/>
-      <c r="GP7" s="42"/>
-      <c r="GQ7" s="42"/>
-      <c r="GR7" s="42"/>
-      <c r="GS7" s="42"/>
-      <c r="GT7" s="42"/>
-      <c r="GU7" s="42"/>
-      <c r="GV7" s="42"/>
-      <c r="GW7" s="42"/>
-      <c r="GX7" s="42"/>
-      <c r="GY7" s="42"/>
-      <c r="GZ7" s="42"/>
-      <c r="HA7" s="42"/>
-      <c r="HB7" s="42"/>
-      <c r="HC7" s="42"/>
-      <c r="HD7" s="42"/>
-      <c r="HE7" s="42"/>
-      <c r="HF7" s="42"/>
-      <c r="HG7" s="42"/>
-      <c r="HH7" s="42"/>
-      <c r="HI7" s="42"/>
-      <c r="HJ7" s="42"/>
-      <c r="HK7" s="42"/>
-      <c r="HL7" s="42"/>
-      <c r="HM7" s="42"/>
-      <c r="HN7" s="42"/>
-      <c r="HO7" s="42"/>
-      <c r="HP7" s="42"/>
-      <c r="HQ7" s="42"/>
-      <c r="HR7" s="42"/>
-      <c r="HS7" s="42"/>
-      <c r="HT7" s="42"/>
-      <c r="HU7" s="42"/>
-      <c r="HV7" s="42"/>
-      <c r="HW7" s="42"/>
-      <c r="HX7" s="42"/>
-      <c r="HY7" s="42"/>
-      <c r="HZ7" s="42"/>
-      <c r="IA7" s="42"/>
-      <c r="IB7" s="42"/>
-      <c r="IC7" s="42"/>
-      <c r="ID7" s="42"/>
-      <c r="IE7" s="42"/>
-      <c r="IF7" s="42"/>
-      <c r="IG7" s="42"/>
-      <c r="IH7" s="42"/>
-      <c r="II7" s="42"/>
-      <c r="IJ7" s="42"/>
-      <c r="IK7" s="42"/>
-      <c r="IL7" s="42"/>
-      <c r="IM7" s="42"/>
-      <c r="IN7" s="42"/>
-      <c r="IO7" s="42"/>
-      <c r="IP7" s="42"/>
-      <c r="IQ7" s="42"/>
-      <c r="IR7" s="42"/>
-      <c r="IS7" s="42"/>
-      <c r="IT7" s="42"/>
-      <c r="IU7" s="42"/>
-      <c r="IV7" s="42"/>
+    <row r="7" spans="1:256" ht="20" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:256" ht="20" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:256" ht="20" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2755,10 +2654,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20" style="35" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="35" customWidth="1"/>
+    <col min="1" max="1" width="1" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="37" customWidth="1"/>
+    <col min="3" max="3" width="20" style="37" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="8" customHeight="1">
@@ -2774,7 +2673,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="36"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1">
       <c r="A2" s="6"/>
@@ -2829,7 +2728,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>33</v>
@@ -2852,986 +2751,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="29">
-        <v>11</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="26">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="29">
-        <v>11</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="1" style="39" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="39" customWidth="1"/>
-    <col min="3" max="3" width="20" style="39" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="39" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="8" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="29">
-        <v>11</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="26">
-        <v>3</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="29">
-        <v>11</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="1" style="40" customWidth="1"/>
-    <col min="2" max="256" width="12.25" style="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="8" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="29">
-        <v>11</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="1" style="41" customWidth="1"/>
-    <col min="2" max="256" width="12.25" style="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="8" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="1" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20" style="42" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="8" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26">
-        <v>2</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="28"/>
@@ -3845,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="28"/>
@@ -3872,16 +2801,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="27" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="28"/>
@@ -3895,16 +2824,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="28"/>
@@ -3925,7 +2854,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="38"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="18"/>
